--- a/Pathuri_LabExam03Grading.xlsx
+++ b/Pathuri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>Author notation</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t xml:space="preserve">Duduct full marks for </t>
+  </si>
+  <si>
+    <t>(-1) for wrong output in toString method</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,19 +423,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -533,6 +536,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -540,15 +552,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1220,7 +1223,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="A33:F34" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="A33:F34" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A33:F34"/>
   <tableColumns count="6">
     <tableColumn id="1" name="S. No" dataDxfId="4"/>
@@ -1499,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,14 +1517,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1556,7 +1559,9 @@
       <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1570,7 +1575,9 @@
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1584,7 +1591,9 @@
       <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1598,34 +1607,38 @@
       <c r="D6" s="18">
         <v>2</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
       </c>
       <c r="E7" s="6">
         <f>SUM(E3:E6)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1658,7 +1671,9 @@
       <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1672,7 +1687,9 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1686,7 +1703,9 @@
       <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1700,7 +1719,9 @@
       <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1716,34 +1737,38 @@
       <c r="D14" s="18">
         <v>2</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(E10:E14)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1890,11 +1915,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1906,14 +1931,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -1949,7 +1974,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="32"/>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
@@ -1968,11 +1993,11 @@
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -1984,14 +2009,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2030,11 +2055,11 @@
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2046,14 +2071,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2074,23 +2099,28 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2098,11 +2128,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Pathuri_LabExam03Grading.xlsx
+++ b/Pathuri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Author notation</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>(-1) for wrong output in toString method</t>
+  </si>
+  <si>
+    <t>Compilation errors</t>
+  </si>
+  <si>
+    <t>For no output</t>
   </si>
 </sst>
 </file>
@@ -402,6 +408,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,18 +430,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1502,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,14 +1523,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1615,11 +1621,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1631,14 +1637,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1745,11 +1751,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1761,14 +1767,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1915,11 +1921,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1931,14 +1937,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -1973,7 +1979,9 @@
       <c r="D29" s="2">
         <v>16</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <v>16</v>
+      </c>
       <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1989,34 +1997,38 @@
       <c r="D30" s="2">
         <v>4</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="13"/>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
       </c>
       <c r="E31" s="6">
         <f>SUM(E29:E30)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2055,11 +2067,11 @@
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2071,14 +2083,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2094,33 +2106,30 @@
         <v>-5</v>
       </c>
       <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3"/>
+        <v>-5</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2128,6 +2137,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Pathuri_LabExam03Grading.xlsx
+++ b/Pathuri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>Author notation</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>For no output</t>
+  </si>
+  <si>
+    <t>(-5)For incorrect logic</t>
+  </si>
+  <si>
+    <t>(-7)For not passing test cases.</t>
   </si>
 </sst>
 </file>
@@ -408,7 +414,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -420,16 +435,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1508,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,14 +1529,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1621,11 +1627,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1637,14 +1643,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1751,11 +1757,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1767,14 +1773,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1809,7 +1815,9 @@
       <c r="D18" s="2">
         <v>2</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
       <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1823,7 +1831,9 @@
       <c r="D19" s="2">
         <v>2</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1839,8 +1849,12 @@
       <c r="D20" s="2">
         <v>10</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="13"/>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -1917,34 +1931,36 @@
       <c r="D25" s="18">
         <v>2</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="18">
+        <v>2</v>
+      </c>
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2005,11 +2021,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2021,14 +2037,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2063,15 +2079,19 @@
       <c r="D34" s="2">
         <v>7</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="13"/>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2083,14 +2103,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2113,23 +2133,28 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2137,11 +2162,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Pathuri_LabExam03Grading.xlsx
+++ b/Pathuri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533575\Downloads\LabExam3\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
   <si>
     <t>Author notation</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>For no output</t>
+  </si>
+  <si>
+    <t>For incorrect Logic</t>
   </si>
 </sst>
 </file>
@@ -1508,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1855,8 +1858,12 @@
       <c r="D21" s="2">
         <v>10</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="2">
+        <v>8</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -1887,8 +1894,12 @@
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="2">
+        <v>7</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -1932,7 +1943,7 @@
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F26" s="6"/>
     </row>
@@ -2124,7 +2135,7 @@
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F38" s="23"/>
     </row>

--- a/Pathuri_LabExam03Grading.xlsx
+++ b/Pathuri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>Author notation</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>(-7)For not passing test cases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3 for comapring product name with getproducts method</t>
   </si>
 </sst>
 </file>
@@ -414,6 +417,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -424,18 +439,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1514,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,18 +1528,18 @@
     <col min="3" max="3" width="49.140625" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1627,11 +1630,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1643,14 +1646,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1757,11 +1760,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1773,14 +1776,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1885,7 +1888,9 @@
       <c r="D22" s="2">
         <v>10</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <v>10</v>
+      </c>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1917,8 +1922,12 @@
       <c r="D24" s="2">
         <v>10</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="13"/>
+      <c r="E24" s="2">
+        <v>7</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -1937,30 +1946,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2021,11 +2030,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2037,14 +2046,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2087,11 +2096,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2103,14 +2112,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2133,28 +2142,23 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2162,6 +2166,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Pathuri_LabExam03Grading.xlsx
+++ b/Pathuri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>Author notation</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t xml:space="preserve"> -3 for comapring product name with getproducts method</t>
+  </si>
+  <si>
+    <t>Incorrect logic</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -429,16 +441,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1517,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,14 +1535,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1630,11 +1633,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1646,14 +1649,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1760,11 +1763,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1776,14 +1779,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1872,8 +1875,12 @@
       <c r="D21" s="2">
         <v>10</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="2">
+        <v>8</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -1906,8 +1913,12 @@
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="2">
+        <v>7</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -1946,30 +1957,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2030,11 +2041,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2046,14 +2057,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2096,11 +2107,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2112,14 +2123,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2142,23 +2153,28 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2166,11 +2182,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Pathuri_LabExam03Grading.xlsx
+++ b/Pathuri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533575\Downloads\LabExam3\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>Author notation</t>
   </si>
@@ -167,7 +167,10 @@
     <t xml:space="preserve"> -3 for comapring product name with getproducts method</t>
   </si>
   <si>
-    <t>Incorrect logic</t>
+    <t>(-1) for Incorrect logic</t>
+  </si>
+  <si>
+    <t>(-0.5) for not checking product name inside if condition, (-0.5) for for incorrect return type.</t>
   </si>
 </sst>
 </file>
@@ -1520,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1534,7 @@
     <col min="3" max="3" width="49.140625" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1876,10 +1879,10 @@
         <v>10</v>
       </c>
       <c r="E21" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1914,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>47</v>
@@ -1968,7 +1971,7 @@
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F26" s="6"/>
     </row>
@@ -2164,7 +2167,7 @@
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F38" s="23"/>
     </row>

--- a/Pathuri_LabExam03Grading.xlsx
+++ b/Pathuri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533575\Downloads\LabExam3\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533985\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,9 +149,6 @@
     <t xml:space="preserve">Duduct full marks for </t>
   </si>
   <si>
-    <t>(-1) for wrong output in toString method</t>
-  </si>
-  <si>
     <t>Compilation errors</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>(-0.5) for not checking product name inside if condition, (-0.5) for for incorrect return type.</t>
+  </si>
+  <si>
+    <t>(-0.5) for wrong format in toString method</t>
   </si>
 </sst>
 </file>
@@ -1523,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,10 +1629,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="E7" s="6">
         <f>SUM(E3:E6)</f>
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="F7" s="6"/>
     </row>
@@ -1759,10 +1759,10 @@
         <v>2</v>
       </c>
       <c r="E14" s="18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="E15" s="6">
         <f>SUM(E10:E14)</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="F15" s="6"/>
     </row>
@@ -1862,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1882,7 +1882,7 @@
         <v>9</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1920,7 +1920,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,7 +1940,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2152,7 +2152,7 @@
         <v>-5</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F38" s="23"/>
     </row>

--- a/Pathuri_LabExam03Grading.xlsx
+++ b/Pathuri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533985\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -155,9 +155,6 @@
     <t>For no output</t>
   </si>
   <si>
-    <t>(-5)For incorrect logic</t>
-  </si>
-  <si>
     <t>(-7)For not passing test cases.</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>(-0.5) for wrong format in toString method</t>
+  </si>
+  <si>
+    <t>(-5)For not initializing new linked list if the customer does not exists and not adding new customer to hash map and not adding products for the exsisting customer.</t>
   </si>
 </sst>
 </file>
@@ -423,6 +423,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -433,18 +445,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1523,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,18 +1534,18 @@
     <col min="3" max="3" width="49.140625" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="81.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="149.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1632,15 +1632,15 @@
         <v>1.5</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1652,14 +1652,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1762,15 +1762,15 @@
         <v>1.5</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1782,14 +1782,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1862,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1882,7 +1882,7 @@
         <v>9</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1920,7 +1920,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,7 +1940,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1960,11 +1960,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1976,14 +1976,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2044,11 +2044,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2060,14 +2060,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2106,15 +2106,15 @@
         <v>0</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2126,14 +2126,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2156,11 +2156,11 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
@@ -2173,11 +2173,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2185,6 +2180,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Pathuri_LabExam03Grading.xlsx
+++ b/Pathuri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>Author notation</t>
   </si>
@@ -149,12 +149,6 @@
     <t xml:space="preserve">Duduct full marks for </t>
   </si>
   <si>
-    <t>Compilation errors</t>
-  </si>
-  <si>
-    <t>For no output</t>
-  </si>
-  <si>
     <t>(-7)For not passing test cases.</t>
   </si>
   <si>
@@ -171,6 +165,15 @@
   </si>
   <si>
     <t>(-5)For not initializing new linked list if the customer does not exists and not adding new customer to hash map and not adding products for the exsisting customer.</t>
+  </si>
+  <si>
+    <t>(-2) for not declaring and initializing customer object</t>
+  </si>
+  <si>
+    <t>(-4) for no output displayed due to compilation errors</t>
+  </si>
+  <si>
+    <t>(-5) for Compilation errors in CustomerMapping class</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,16 +447,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1523,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,14 +1541,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1632,15 +1635,15 @@
         <v>1.5</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1652,14 +1655,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1762,15 +1765,15 @@
         <v>1.5</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1782,14 +1785,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1862,7 +1865,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1882,7 +1885,7 @@
         <v>9</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1920,7 +1923,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,7 +1943,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1960,11 +1963,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1976,14 +1979,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2019,9 +2022,11 @@
         <v>16</v>
       </c>
       <c r="E29" s="2">
-        <v>16</v>
-      </c>
-      <c r="F29" s="24"/>
+        <v>14</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
@@ -2040,34 +2045,34 @@
         <v>0</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
       </c>
       <c r="E31" s="6">
         <f>SUM(E29:E30)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2106,15 +2111,15 @@
         <v>0</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2126,14 +2131,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2152,27 +2157,32 @@
         <v>-5</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2180,11 +2190,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Pathuri_LabExam03Grading.xlsx
+++ b/Pathuri_LabExam03Grading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -152,9 +152,6 @@
     <t>(-7)For not passing test cases.</t>
   </si>
   <si>
-    <t xml:space="preserve"> -3 for comapring product name with getproducts method</t>
-  </si>
-  <si>
     <t>(-1) for Incorrect logic</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>(-5) for Compilation errors in CustomerMapping class</t>
+  </si>
+  <si>
+    <t>(-1) for comapring product name with getproducts method</t>
   </si>
 </sst>
 </file>
@@ -426,6 +426,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,18 +448,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1527,7 +1527,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,14 +1541,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1635,15 +1635,15 @@
         <v>1.5</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1655,14 +1655,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1765,15 +1765,15 @@
         <v>1.5</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1785,14 +1785,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1865,7 +1865,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1885,7 +1885,7 @@
         <v>9</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1923,7 +1923,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1940,10 +1940,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1963,30 +1963,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2025,7 +2025,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2045,15 +2045,15 @@
         <v>0</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2065,14 +2065,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2115,11 +2115,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2131,14 +2131,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2157,32 +2157,27 @@
         <v>-5</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2190,6 +2185,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
